--- a/routeclipping.xlsx
+++ b/routeclipping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\github\AA272FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF711A8A-91A8-4744-AA91-C65EDE19DC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A19A647-A419-45ED-9C4C-6BA0F070EA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D359C48-C5B3-43FC-ADDD-F2F7AE81C572}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Trial</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>GPSStopUTC</t>
+  </si>
+  <si>
+    <t>GyroStartUTC</t>
+  </si>
+  <si>
+    <t>GyroStopUTC</t>
+  </si>
+  <si>
+    <t>GyroStartIDX</t>
+  </si>
+  <si>
+    <t>GyroStopIDX</t>
   </si>
 </sst>
 </file>
@@ -642,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F140E490-3DE4-4FB7-98D7-B7BEB8D39EA8}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,16 +666,18 @@
     <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.6328125" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,31 +694,43 @@
         <v>83</v>
       </c>
       <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
         <v>80</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -721,31 +747,43 @@
         <v>1676594931688</v>
       </c>
       <c r="F2">
+        <v>1676594926231</v>
+      </c>
+      <c r="G2">
+        <v>1676594931684</v>
+      </c>
+      <c r="H2">
         <v>1676594925999</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1676594931999</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1590</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>2233</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1589</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>2232</v>
       </c>
-      <c r="L2">
+      <c r="N2">
+        <v>1595</v>
+      </c>
+      <c r="O2">
+        <v>2238</v>
+      </c>
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -762,31 +800,43 @@
         <v>1676594584798</v>
       </c>
       <c r="F3">
+        <v>1676594579608</v>
+      </c>
+      <c r="G3">
+        <v>1676594584797</v>
+      </c>
+      <c r="H3">
         <v>1676594580000</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1676594586000</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1047</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1625</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1046</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>1624</v>
       </c>
-      <c r="L3">
+      <c r="N3">
+        <v>1047</v>
+      </c>
+      <c r="O3">
+        <v>1625</v>
+      </c>
+      <c r="P3">
         <v>11</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -803,31 +853,43 @@
         <v>1676595052616</v>
       </c>
       <c r="F4">
+        <v>1676595047150</v>
+      </c>
+      <c r="G4">
+        <v>1676595052612</v>
+      </c>
+      <c r="H4">
         <v>1676595046999</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1676595052999</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>898</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>1542</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>897</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1541</v>
       </c>
-      <c r="L4">
+      <c r="N4">
+        <v>904</v>
+      </c>
+      <c r="O4">
+        <v>1548</v>
+      </c>
+      <c r="P4">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -844,31 +906,43 @@
         <v>1676594847087</v>
       </c>
       <c r="F5">
+        <v>1676594841241</v>
+      </c>
+      <c r="G5">
+        <v>1676594847087</v>
+      </c>
+      <c r="H5">
         <v>1676594841000</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1676594847000</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1595</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2246</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1594</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>2245</v>
       </c>
-      <c r="L5">
+      <c r="N5">
+        <v>1595</v>
+      </c>
+      <c r="O5">
+        <v>2246</v>
+      </c>
+      <c r="P5">
         <v>16</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -885,31 +959,43 @@
         <v>1676594797577</v>
       </c>
       <c r="F6">
+        <v>1676594791772</v>
+      </c>
+      <c r="G6">
+        <v>1676594797573</v>
+      </c>
+      <c r="H6">
         <v>1676594791999</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1676594797999</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1374</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>2059</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>1372</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>2057</v>
       </c>
-      <c r="L6">
+      <c r="N6">
+        <v>1381</v>
+      </c>
+      <c r="O6">
+        <v>2065</v>
+      </c>
+      <c r="P6">
         <v>13</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -926,31 +1012,43 @@
         <v>1676595256753</v>
       </c>
       <c r="F7">
+        <v>1676595251369</v>
+      </c>
+      <c r="G7">
+        <v>1676595256748</v>
+      </c>
+      <c r="H7">
         <v>1676595250999</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1676595257999</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>1077</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1677</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>1076</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>1676</v>
       </c>
-      <c r="L7">
+      <c r="N7">
+        <v>1078</v>
+      </c>
+      <c r="O7">
+        <v>1677</v>
+      </c>
+      <c r="P7">
         <v>11</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -967,16 +1065,16 @@
         <v>1676593553065</v>
       </c>
       <c r="F8">
+        <v>1676593546005</v>
+      </c>
+      <c r="G8">
+        <v>1676593553061</v>
+      </c>
+      <c r="H8">
         <v>1676593545999</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1676593552999</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
-      </c>
-      <c r="I8">
-        <v>1832</v>
       </c>
       <c r="J8">
         <v>1000</v>
@@ -985,13 +1083,25 @@
         <v>1832</v>
       </c>
       <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8">
+        <v>1832</v>
+      </c>
+      <c r="N8">
+        <v>1006</v>
+      </c>
+      <c r="O8">
+        <v>1838</v>
+      </c>
+      <c r="P8">
         <v>9</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1008,31 +1118,43 @@
         <v>1676593775045</v>
       </c>
       <c r="F9">
+        <v>1676593768846</v>
+      </c>
+      <c r="G9">
+        <v>1676593775042</v>
+      </c>
+      <c r="H9">
         <v>1676593769000</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1676593775000</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>1421</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>2111</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>1419</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>2109</v>
       </c>
-      <c r="L9">
+      <c r="N9">
+        <v>1420</v>
+      </c>
+      <c r="O9">
+        <v>2110</v>
+      </c>
+      <c r="P9">
         <v>14</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1049,31 +1171,43 @@
         <v>1676593697052</v>
       </c>
       <c r="F10">
+        <v>1676593689911</v>
+      </c>
+      <c r="G10">
+        <v>1676593697052</v>
+      </c>
+      <c r="H10">
         <v>1676593689999</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1676593696999</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1617</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>2459</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>1616</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>2457</v>
       </c>
-      <c r="L10">
+      <c r="N10">
+        <v>1624</v>
+      </c>
+      <c r="O10">
+        <v>2466</v>
+      </c>
+      <c r="P10">
         <v>14</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1090,31 +1224,43 @@
         <v>1676594026110</v>
       </c>
       <c r="F11">
+        <v>1676594019945</v>
+      </c>
+      <c r="G11">
+        <v>1676594026105</v>
+      </c>
+      <c r="H11">
         <v>1676594019999</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1676594025999</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>891</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1578</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>890</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>1577</v>
       </c>
-      <c r="L11">
+      <c r="N11">
+        <v>891</v>
+      </c>
+      <c r="O11">
+        <v>1577</v>
+      </c>
+      <c r="P11">
         <v>10</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1131,31 +1277,43 @@
         <v>1676593863041</v>
       </c>
       <c r="F12">
+        <v>1676593856345</v>
+      </c>
+      <c r="G12">
+        <v>1676593863045</v>
+      </c>
+      <c r="H12">
         <v>1676593855999</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1676593862999</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>1348</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>2137</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>1343</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>2132</v>
       </c>
-      <c r="L12">
+      <c r="N12">
+        <v>1353</v>
+      </c>
+      <c r="O12">
+        <v>2143</v>
+      </c>
+      <c r="P12">
         <v>12</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1172,16 +1330,16 @@
         <v>1676594152132</v>
       </c>
       <c r="F13">
+        <v>1676594145366</v>
+      </c>
+      <c r="G13">
+        <v>1676594152129</v>
+      </c>
+      <c r="H13">
         <v>1676594145000</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1676594152000</v>
-      </c>
-      <c r="H13">
-        <v>1100</v>
-      </c>
-      <c r="I13">
-        <v>1854</v>
       </c>
       <c r="J13">
         <v>1100</v>
@@ -1190,13 +1348,25 @@
         <v>1854</v>
       </c>
       <c r="L13">
+        <v>1100</v>
+      </c>
+      <c r="M13">
+        <v>1854</v>
+      </c>
+      <c r="N13">
+        <v>1101</v>
+      </c>
+      <c r="O13">
+        <v>1854</v>
+      </c>
+      <c r="P13">
         <v>11</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1213,31 +1383,43 @@
         <v>1676592105652</v>
       </c>
       <c r="F14">
+        <v>1676592099156</v>
+      </c>
+      <c r="G14">
+        <v>1676592105653</v>
+      </c>
+      <c r="H14">
         <v>1676592099000</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1676592106000</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1641</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>2407</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>1639</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>2405</v>
       </c>
-      <c r="L14">
+      <c r="N14">
+        <v>1648</v>
+      </c>
+      <c r="O14">
+        <v>2414</v>
+      </c>
+      <c r="P14">
         <v>14</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1254,31 +1436,43 @@
         <v>1676592670101</v>
       </c>
       <c r="F15">
+        <v>1676592665988</v>
+      </c>
+      <c r="G15">
+        <v>1676592670100</v>
+      </c>
+      <c r="H15">
         <v>1676592666000</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>1676592670000</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>1262</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>1720</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>1261</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>1719</v>
       </c>
-      <c r="L15">
+      <c r="N15">
+        <v>1261</v>
+      </c>
+      <c r="O15">
+        <v>1719</v>
+      </c>
+      <c r="P15">
         <v>13</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1295,31 +1489,43 @@
         <v>1676592279649</v>
       </c>
       <c r="F16">
+        <v>1676592275807</v>
+      </c>
+      <c r="G16">
+        <v>1676592279649</v>
+      </c>
+      <c r="H16">
         <v>1676592283000</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>1676592283000</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>1393</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>1846</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>1385</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>1838</v>
       </c>
-      <c r="L16">
+      <c r="N16">
+        <v>1401</v>
+      </c>
+      <c r="O16">
+        <v>1854</v>
+      </c>
+      <c r="P16">
         <v>12</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1336,31 +1542,43 @@
         <v>1676592104365</v>
       </c>
       <c r="F17">
+        <v>1676592100001</v>
+      </c>
+      <c r="G17">
+        <v>1676592104365</v>
+      </c>
+      <c r="H17">
         <v>1676592099999</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1676592103999</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>1551</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>2037</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>1550</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>2036</v>
       </c>
-      <c r="L17">
+      <c r="N17">
+        <v>1550</v>
+      </c>
+      <c r="O17">
+        <v>2036</v>
+      </c>
+      <c r="P17">
         <v>15</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1377,31 +1595,43 @@
         <v>1676592745107</v>
       </c>
       <c r="F18">
+        <v>1676592739591</v>
+      </c>
+      <c r="G18">
+        <v>1676592745103</v>
+      </c>
+      <c r="H18">
         <v>1676592739999</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1676592744999</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>1475</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>2125</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>1465</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>2115</v>
       </c>
-      <c r="L18">
+      <c r="N18">
+        <v>1479</v>
+      </c>
+      <c r="O18">
+        <v>2129</v>
+      </c>
+      <c r="P18">
         <v>7</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1418,31 +1648,43 @@
         <v>1676592475372</v>
       </c>
       <c r="F19">
+        <v>1676592471474</v>
+      </c>
+      <c r="G19">
+        <v>1676592475373</v>
+      </c>
+      <c r="H19">
         <v>1676592471000</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1676592475000</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>1324</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>1758</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>1323</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>1757</v>
       </c>
-      <c r="L19">
+      <c r="N19">
+        <v>1323</v>
+      </c>
+      <c r="O19">
+        <v>1757</v>
+      </c>
+      <c r="P19">
         <v>13</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1459,31 +1701,43 @@
         <v>1676593967775</v>
       </c>
       <c r="F20">
+        <v>1676593962164</v>
+      </c>
+      <c r="G20">
+        <v>1676593967779</v>
+      </c>
+      <c r="H20">
         <v>1676593961999</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>1676593967999</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>1237</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>1898</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>1236</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>1895</v>
       </c>
-      <c r="L20">
+      <c r="N20">
+        <v>1243</v>
+      </c>
+      <c r="O20">
+        <v>1905</v>
+      </c>
+      <c r="P20">
         <v>11</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1500,31 +1754,43 @@
         <v>1676593637235</v>
       </c>
       <c r="F21">
+        <v>1676593631447</v>
+      </c>
+      <c r="G21">
+        <v>1676593637238</v>
+      </c>
+      <c r="H21">
         <v>1676593631000</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1676593637000</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>1999</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>2644</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>1997</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>2642</v>
       </c>
-      <c r="L21">
+      <c r="N21">
+        <v>1999</v>
+      </c>
+      <c r="O21">
+        <v>2644</v>
+      </c>
+      <c r="P21">
         <v>19</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1541,31 +1807,43 @@
         <v>1676594094456</v>
       </c>
       <c r="F22">
+        <v>1676594089287</v>
+      </c>
+      <c r="G22">
+        <v>1676594094452</v>
+      </c>
+      <c r="H22">
         <v>1676594088999</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1676594093999</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>987</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>1597</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>985</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>1595</v>
       </c>
-      <c r="L22">
+      <c r="N22">
+        <v>994</v>
+      </c>
+      <c r="O22">
+        <v>1603</v>
+      </c>
+      <c r="P22">
         <v>9</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1582,31 +1860,43 @@
         <v>1676593490876</v>
       </c>
       <c r="F23">
+        <v>1676593484728</v>
+      </c>
+      <c r="G23">
+        <v>1676593490872</v>
+      </c>
+      <c r="H23">
         <v>1676593485000</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>1676593491000</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>1188</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>1873</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>1185</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>1870</v>
       </c>
-      <c r="L23">
+      <c r="N23">
+        <v>1188</v>
+      </c>
+      <c r="O23">
+        <v>1872</v>
+      </c>
+      <c r="P23">
         <v>12</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1623,31 +1913,43 @@
         <v>1676593412619</v>
       </c>
       <c r="F24">
+        <v>1676593406763</v>
+      </c>
+      <c r="G24">
+        <v>1676593412615</v>
+      </c>
+      <c r="H24">
         <v>1676593406999</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>1676593412999</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>2102</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>2792</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>2101</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>2791</v>
       </c>
-      <c r="L24">
+      <c r="N24">
+        <v>2108</v>
+      </c>
+      <c r="O24">
+        <v>2798</v>
+      </c>
+      <c r="P24">
         <v>19</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1664,31 +1966,43 @@
         <v>1676593908718</v>
       </c>
       <c r="F25">
+        <v>1676593903299</v>
+      </c>
+      <c r="G25">
+        <v>1676593908723</v>
+      </c>
+      <c r="H25">
         <v>1676593903000</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>1676593909000</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>1022</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>1626</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>1019</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>1623</v>
       </c>
-      <c r="L25">
+      <c r="N25">
+        <v>1022</v>
+      </c>
+      <c r="O25">
+        <v>1626</v>
+      </c>
+      <c r="P25">
         <v>10</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1705,31 +2019,43 @@
         <v>1676592846701</v>
       </c>
       <c r="F26">
+        <v>1676592841583</v>
+      </c>
+      <c r="G26">
+        <v>1676592846697</v>
+      </c>
+      <c r="H26">
         <v>1676592853000</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>1676592853000</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>1349</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>1952</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>1340</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>1943</v>
       </c>
-      <c r="L26">
+      <c r="N26">
+        <v>1353</v>
+      </c>
+      <c r="O26">
+        <v>1956</v>
+      </c>
+      <c r="P26">
         <v>7</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1746,31 +2072,43 @@
         <v>1676592887927</v>
       </c>
       <c r="F27">
+        <v>1676592883706</v>
+      </c>
+      <c r="G27">
+        <v>1676592887926</v>
+      </c>
+      <c r="H27">
         <v>1676592884000</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>1676592888000</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>1034</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>1504</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>1033</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>1503</v>
       </c>
-      <c r="L27">
+      <c r="N27">
+        <v>1033</v>
+      </c>
+      <c r="O27">
+        <v>1503</v>
+      </c>
+      <c r="P27">
         <v>11</v>
       </c>
-      <c r="M27">
+      <c r="Q27">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1787,31 +2125,43 @@
         <v>1676592421180</v>
       </c>
       <c r="F28">
+        <v>1676592417173</v>
+      </c>
+      <c r="G28">
+        <v>1676592421176</v>
+      </c>
+      <c r="H28">
         <v>1676592427000</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>1676592427000</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>1602</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>2074</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>1595</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>2066</v>
       </c>
-      <c r="L28">
+      <c r="N28">
+        <v>1608</v>
+      </c>
+      <c r="O28">
+        <v>2080</v>
+      </c>
+      <c r="P28">
         <v>19</v>
       </c>
-      <c r="M28">
+      <c r="Q28">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1828,16 +2178,16 @@
         <v>1676592798411</v>
       </c>
       <c r="F29">
+        <v>1676592793004</v>
+      </c>
+      <c r="G29">
+        <v>1676592798410</v>
+      </c>
+      <c r="H29">
         <v>1676592793000</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>1676592798000</v>
-      </c>
-      <c r="H29">
-        <v>1189</v>
-      </c>
-      <c r="I29">
-        <v>1791</v>
       </c>
       <c r="J29">
         <v>1189</v>
@@ -1846,13 +2196,25 @@
         <v>1791</v>
       </c>
       <c r="L29">
+        <v>1189</v>
+      </c>
+      <c r="M29">
+        <v>1791</v>
+      </c>
+      <c r="N29">
+        <v>1189</v>
+      </c>
+      <c r="O29">
+        <v>1791</v>
+      </c>
+      <c r="P29">
         <v>12</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1869,31 +2231,43 @@
         <v>1676592551322</v>
       </c>
       <c r="F30">
+        <v>1676592546378</v>
+      </c>
+      <c r="G30">
+        <v>1676592551322</v>
+      </c>
+      <c r="H30">
         <v>1676592558999</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>1676592558999</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>1747</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>2330</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>1738</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>2321</v>
       </c>
-      <c r="L30">
+      <c r="N30">
+        <v>1749</v>
+      </c>
+      <c r="O30">
+        <v>2332</v>
+      </c>
+      <c r="P30">
         <v>12</v>
       </c>
-      <c r="M30">
+      <c r="Q30">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1910,31 +2284,43 @@
         <v>1676592336126</v>
       </c>
       <c r="F31">
+        <v>1676592332201</v>
+      </c>
+      <c r="G31">
+        <v>1676592336126</v>
+      </c>
+      <c r="H31">
         <v>1676592331999</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>1676592335999</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>1096</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>1533</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>1092</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>1529</v>
       </c>
-      <c r="L31">
+      <c r="N31">
+        <v>1095</v>
+      </c>
+      <c r="O31">
+        <v>1532</v>
+      </c>
+      <c r="P31">
         <v>11</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1951,31 +2337,43 @@
         <v>1676594534217</v>
       </c>
       <c r="F32">
+        <v>1676594528726</v>
+      </c>
+      <c r="G32">
+        <v>1676594534212</v>
+      </c>
+      <c r="H32">
         <v>1676594528999</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>1676594533999</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>1328</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>1975</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>1326</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>1973</v>
       </c>
-      <c r="L32">
+      <c r="N32">
+        <v>1332</v>
+      </c>
+      <c r="O32">
+        <v>1979</v>
+      </c>
+      <c r="P32">
         <v>12</v>
       </c>
-      <c r="M32">
+      <c r="Q32">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1992,31 +2390,43 @@
         <v>1676595109082</v>
       </c>
       <c r="F33">
+        <v>1676595102333</v>
+      </c>
+      <c r="G33">
+        <v>1676595109077</v>
+      </c>
+      <c r="H33">
         <v>1676595101999</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>1676595108999</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>1185</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>1937</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>1183</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>1935</v>
       </c>
-      <c r="L33">
+      <c r="N33">
+        <v>1185</v>
+      </c>
+      <c r="O33">
+        <v>1936</v>
+      </c>
+      <c r="P33">
         <v>12</v>
       </c>
-      <c r="M33">
+      <c r="Q33">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2033,31 +2443,43 @@
         <v>1676595168478</v>
       </c>
       <c r="F34">
+        <v>1676595162354</v>
+      </c>
+      <c r="G34">
+        <v>1676595168479</v>
+      </c>
+      <c r="H34">
         <v>1676595161999</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>1676595167999</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>1559</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>2281</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>1556</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>2278</v>
       </c>
-      <c r="L34">
+      <c r="N34">
+        <v>1565</v>
+      </c>
+      <c r="O34">
+        <v>2287</v>
+      </c>
+      <c r="P34">
         <v>14</v>
       </c>
-      <c r="M34">
+      <c r="Q34">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2074,31 +2496,43 @@
         <v>1676594704968</v>
       </c>
       <c r="F35">
+        <v>1676594699077</v>
+      </c>
+      <c r="G35">
+        <v>1676594704968</v>
+      </c>
+      <c r="H35">
         <v>1676594699000</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>1676594705000</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>1132</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>1788</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>1131</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>1787</v>
       </c>
-      <c r="L35">
+      <c r="N35">
+        <v>1131</v>
+      </c>
+      <c r="O35">
+        <v>1787</v>
+      </c>
+      <c r="P35">
         <v>12</v>
       </c>
-      <c r="M35">
+      <c r="Q35">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2115,31 +2549,43 @@
         <v>1676594631072</v>
       </c>
       <c r="F36">
+        <v>1676594625089</v>
+      </c>
+      <c r="G36">
+        <v>1676594631076</v>
+      </c>
+      <c r="H36">
         <v>1676594624999</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>1676594631999</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>1602</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>2307</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>1600</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>2305</v>
       </c>
-      <c r="L36">
+      <c r="N36">
+        <v>1609</v>
+      </c>
+      <c r="O36">
+        <v>2315</v>
+      </c>
+      <c r="P36">
         <v>14</v>
       </c>
-      <c r="M36">
+      <c r="Q36">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2156,31 +2602,43 @@
         <v>1676595003608</v>
       </c>
       <c r="F37">
+        <v>1676594998373</v>
+      </c>
+      <c r="G37">
+        <v>1676595003609</v>
+      </c>
+      <c r="H37">
         <v>1676594990000</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>1676594990000</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>1519</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>2102</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>1516</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>2099</v>
       </c>
-      <c r="L37">
+      <c r="N37">
+        <v>1519</v>
+      </c>
+      <c r="O37">
+        <v>2102</v>
+      </c>
+      <c r="P37">
         <v>7</v>
       </c>
-      <c r="M37">
+      <c r="Q37">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2197,31 +2655,43 @@
         <v>1676594932967</v>
       </c>
       <c r="F38">
+        <v>1676594927156</v>
+      </c>
+      <c r="G38">
+        <v>1676594932966</v>
+      </c>
+      <c r="H38">
         <v>1676594927000</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>1676594933000</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>1510</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>2157</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>1506</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>2153</v>
       </c>
-      <c r="L38">
+      <c r="N38">
+        <v>1510</v>
+      </c>
+      <c r="O38">
+        <v>2157</v>
+      </c>
+      <c r="P38">
         <v>15</v>
       </c>
-      <c r="M38">
+      <c r="Q38">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2238,31 +2708,43 @@
         <v>1676594583759</v>
       </c>
       <c r="F39">
+        <v>1676594578455</v>
+      </c>
+      <c r="G39">
+        <v>1676594583755</v>
+      </c>
+      <c r="H39">
         <v>1676594577999</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>1676594583999</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>1078</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>1703</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>1075</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>1700</v>
       </c>
-      <c r="L39">
+      <c r="N39">
+        <v>1084</v>
+      </c>
+      <c r="O39">
+        <v>1709</v>
+      </c>
+      <c r="P39">
         <v>9</v>
       </c>
-      <c r="M39">
+      <c r="Q39">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2279,31 +2761,43 @@
         <v>1676595053517</v>
       </c>
       <c r="F40">
+        <v>1676595048222</v>
+      </c>
+      <c r="G40">
+        <v>1676595053520</v>
+      </c>
+      <c r="H40">
         <v>1676595054999</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>1676595054999</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>866</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>1455</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>865</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>1454</v>
       </c>
-      <c r="L40">
+      <c r="N40">
+        <v>865</v>
+      </c>
+      <c r="O40">
+        <v>1455</v>
+      </c>
+      <c r="P40">
         <v>12</v>
       </c>
-      <c r="M40">
+      <c r="Q40">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2320,31 +2814,43 @@
         <v>1676594845441</v>
       </c>
       <c r="F41">
+        <v>1676594840103</v>
+      </c>
+      <c r="G41">
+        <v>1676594845437</v>
+      </c>
+      <c r="H41">
         <v>1676594839999</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>1676594844999</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>1685</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>2314</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>1683</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>2312</v>
       </c>
-      <c r="L41">
+      <c r="N41">
+        <v>1690</v>
+      </c>
+      <c r="O41">
+        <v>2319</v>
+      </c>
+      <c r="P41">
         <v>15</v>
       </c>
-      <c r="M41">
+      <c r="Q41">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2361,31 +2867,43 @@
         <v>1676594798472</v>
       </c>
       <c r="F42">
+        <v>1676594792895</v>
+      </c>
+      <c r="G42">
+        <v>1676594798472</v>
+      </c>
+      <c r="H42">
         <v>1676594793000</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>1676594798000</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>1321</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>1942</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>1318</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>1939</v>
       </c>
-      <c r="L42">
+      <c r="N42">
+        <v>1321</v>
+      </c>
+      <c r="O42">
+        <v>1942</v>
+      </c>
+      <c r="P42">
         <v>14</v>
       </c>
-      <c r="M42">
+      <c r="Q42">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2402,31 +2920,43 @@
         <v>1676595255910</v>
       </c>
       <c r="F43">
+        <v>1676595250097</v>
+      </c>
+      <c r="G43">
+        <v>1676595255906</v>
+      </c>
+      <c r="H43">
         <v>1676595249999</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>1676595255999</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>1101</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>1786</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>1098</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>1783</v>
       </c>
-      <c r="L43">
+      <c r="N43">
+        <v>1107</v>
+      </c>
+      <c r="O43">
+        <v>1792</v>
+      </c>
+      <c r="P43">
         <v>10</v>
       </c>
-      <c r="M43">
+      <c r="Q43">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2443,31 +2973,43 @@
         <v>1676593554065</v>
       </c>
       <c r="F44">
+        <v>1676593546966</v>
+      </c>
+      <c r="G44">
+        <v>1676593554060</v>
+      </c>
+      <c r="H44">
         <v>1676593547000</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>1676593554000</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>949</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>1739</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>948</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>1738</v>
       </c>
-      <c r="L44">
+      <c r="N44">
+        <v>948</v>
+      </c>
+      <c r="O44">
+        <v>1738</v>
+      </c>
+      <c r="P44">
         <v>10</v>
       </c>
-      <c r="M44">
+      <c r="Q44">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2484,31 +3026,43 @@
         <v>1676593773651</v>
       </c>
       <c r="F45">
+        <v>1676593767702</v>
+      </c>
+      <c r="G45">
+        <v>1676593773647</v>
+      </c>
+      <c r="H45">
         <v>1676593767999</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>1676593773999</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>1487</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>2188</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>1482</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>2183</v>
       </c>
-      <c r="L45">
+      <c r="N45">
+        <v>1492</v>
+      </c>
+      <c r="O45">
+        <v>2193</v>
+      </c>
+      <c r="P45">
         <v>14</v>
       </c>
-      <c r="M45">
+      <c r="Q45">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2525,31 +3079,43 @@
         <v>1676593697308</v>
       </c>
       <c r="F46">
+        <v>1676593690686</v>
+      </c>
+      <c r="G46">
+        <v>1676593697304</v>
+      </c>
+      <c r="H46">
         <v>1676593691000</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>1676593697000</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>1502</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>2240</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>1500</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>2238</v>
       </c>
-      <c r="L46">
+      <c r="N46">
+        <v>1502</v>
+      </c>
+      <c r="O46">
+        <v>2239</v>
+      </c>
+      <c r="P46">
         <v>15</v>
       </c>
-      <c r="M46">
+      <c r="Q46">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2566,31 +3132,43 @@
         <v>1676594025048</v>
       </c>
       <c r="F47">
+        <v>1676594018946</v>
+      </c>
+      <c r="G47">
+        <v>1676594025052</v>
+      </c>
+      <c r="H47">
         <v>1676594018999</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>1676594024999</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>947</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>1666</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>946</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>1665</v>
       </c>
-      <c r="L47">
+      <c r="N47">
+        <v>952</v>
+      </c>
+      <c r="O47">
+        <v>1672</v>
+      </c>
+      <c r="P47">
         <v>9</v>
       </c>
-      <c r="M47">
+      <c r="Q47">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2607,31 +3185,43 @@
         <v>1676593863946</v>
       </c>
       <c r="F48">
+        <v>1676593857350</v>
+      </c>
+      <c r="G48">
+        <v>1676593863941</v>
+      </c>
+      <c r="H48">
         <v>1676593857000</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>1676593864000</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>1286</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>2020</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>1283</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>2016</v>
       </c>
-      <c r="L48">
+      <c r="N48">
+        <v>1285</v>
+      </c>
+      <c r="O48">
+        <v>2019</v>
+      </c>
+      <c r="P48">
         <v>13</v>
       </c>
-      <c r="M48">
+      <c r="Q48">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2648,31 +3238,43 @@
         <v>1676594150457</v>
       </c>
       <c r="F49">
+        <v>1676594144211</v>
+      </c>
+      <c r="G49">
+        <v>1676594150453</v>
+      </c>
+      <c r="H49">
         <v>1676594143999</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>1676594149999</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>1151</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>1888</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>1148</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>1885</v>
       </c>
-      <c r="L49">
+      <c r="N49">
+        <v>1157</v>
+      </c>
+      <c r="O49">
+        <v>1893</v>
+      </c>
+      <c r="P49">
         <v>10</v>
       </c>
-      <c r="M49">
+      <c r="Q49">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2689,31 +3291,43 @@
         <v>1676591826319</v>
       </c>
       <c r="F50">
+        <v>1676591822185</v>
+      </c>
+      <c r="G50">
+        <v>1676591826315</v>
+      </c>
+      <c r="H50">
         <v>1676591822000</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>1676591826000</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>2052</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>2512</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>2051</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>2511</v>
       </c>
-      <c r="L50">
+      <c r="N50">
+        <v>2052</v>
+      </c>
+      <c r="O50">
+        <v>2512</v>
+      </c>
+      <c r="P50">
         <v>20</v>
       </c>
-      <c r="M50">
+      <c r="Q50">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2730,31 +3344,43 @@
         <v>1676592668958</v>
       </c>
       <c r="F51">
+        <v>1676592665006</v>
+      </c>
+      <c r="G51">
+        <v>1676592668958</v>
+      </c>
+      <c r="H51">
         <v>1676592664999</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>1676592668999</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>1322</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>1788</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>1315</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>1781</v>
       </c>
-      <c r="L51">
+      <c r="N51">
+        <v>1330</v>
+      </c>
+      <c r="O51">
+        <v>1796</v>
+      </c>
+      <c r="P51">
         <v>4</v>
       </c>
-      <c r="M51">
+      <c r="Q51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2771,31 +3397,43 @@
         <v>1676592213770</v>
       </c>
       <c r="F52">
+        <v>1676592209638</v>
+      </c>
+      <c r="G52">
+        <v>1676592213769</v>
+      </c>
+      <c r="H52">
         <v>1676592209999</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>1676592213999</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>1608</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>2068</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>1606</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>2066</v>
       </c>
-      <c r="L52">
+      <c r="N52">
+        <v>1608</v>
+      </c>
+      <c r="O52">
+        <v>2068</v>
+      </c>
+      <c r="P52">
         <v>16</v>
       </c>
-      <c r="M52">
+      <c r="Q52">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2812,31 +3450,43 @@
         <v>1676592212517</v>
       </c>
       <c r="F53">
+        <v>1676592208451</v>
+      </c>
+      <c r="G53">
+        <v>1676592212513</v>
+      </c>
+      <c r="H53">
         <v>1676592207999</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>1676592212999</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>1674</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>2153</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>1667</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>2146</v>
       </c>
-      <c r="L53">
+      <c r="N53">
+        <v>1681</v>
+      </c>
+      <c r="O53">
+        <v>2160</v>
+      </c>
+      <c r="P53">
         <v>3</v>
       </c>
-      <c r="M53">
+      <c r="Q53">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2853,31 +3503,43 @@
         <v>1676592745526</v>
       </c>
       <c r="F54">
+        <v>1676592740731</v>
+      </c>
+      <c r="G54">
+        <v>1676592745525</v>
+      </c>
+      <c r="H54">
         <v>1676592741000</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>1676592746000</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>1418</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>1952</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>1416</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>1950</v>
       </c>
-      <c r="L54">
+      <c r="N54">
+        <v>1417</v>
+      </c>
+      <c r="O54">
+        <v>1951</v>
+      </c>
+      <c r="P54">
         <v>15</v>
       </c>
-      <c r="M54">
+      <c r="Q54">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2894,31 +3556,43 @@
         <v>1676592474921</v>
       </c>
       <c r="F55">
+        <v>1676592470320</v>
+      </c>
+      <c r="G55">
+        <v>1676592474925</v>
+      </c>
+      <c r="H55">
         <v>1676592470000</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>1676592475000</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>1372</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>1915</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>1363</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>1906</v>
       </c>
-      <c r="L55">
+      <c r="N55">
+        <v>1377</v>
+      </c>
+      <c r="O55">
+        <v>1920</v>
+      </c>
+      <c r="P55">
         <v>1</v>
       </c>
-      <c r="M55">
+      <c r="Q55">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2935,31 +3609,43 @@
         <v>1676593969503</v>
       </c>
       <c r="F56">
+        <v>1676593963230</v>
+      </c>
+      <c r="G56">
+        <v>1676593969497</v>
+      </c>
+      <c r="H56">
         <v>1676593963000</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>1676593970000</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>1189</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>1887</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>1188</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>1886</v>
       </c>
-      <c r="L56">
+      <c r="N56">
+        <v>1189</v>
+      </c>
+      <c r="O56">
+        <v>1887</v>
+      </c>
+      <c r="P56">
         <v>12</v>
       </c>
-      <c r="M56">
+      <c r="Q56">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2976,31 +3662,43 @@
         <v>1676593635880</v>
       </c>
       <c r="F57">
+        <v>1676593630414</v>
+      </c>
+      <c r="G57">
+        <v>1676593635876</v>
+      </c>
+      <c r="H57">
         <v>1676593629999</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>1676593635999</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>2100</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>2744</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>2097</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>2741</v>
       </c>
-      <c r="L57">
+      <c r="N57">
+        <v>2106</v>
+      </c>
+      <c r="O57">
+        <v>2750</v>
+      </c>
+      <c r="P57">
         <v>18</v>
       </c>
-      <c r="M57">
+      <c r="Q57">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3017,31 +3715,43 @@
         <v>1676594095749</v>
       </c>
       <c r="F58">
+        <v>1676594089987</v>
+      </c>
+      <c r="G58">
+        <v>1676594095752</v>
+      </c>
+      <c r="H58">
         <v>1676594096000</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>1676594096000</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>910</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>1552</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>909</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>1551</v>
       </c>
-      <c r="L58">
+      <c r="N58">
+        <v>911</v>
+      </c>
+      <c r="O58">
+        <v>1553</v>
+      </c>
+      <c r="P58">
         <v>1</v>
       </c>
-      <c r="M58">
+      <c r="Q58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3058,31 +3768,43 @@
         <v>1676593489458</v>
       </c>
       <c r="F59">
+        <v>1676593483708</v>
+      </c>
+      <c r="G59">
+        <v>1676593489458</v>
+      </c>
+      <c r="H59">
         <v>1676593483999</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>1676593488999</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>1256</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>1934</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>1253</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>1931</v>
       </c>
-      <c r="L59">
+      <c r="N59">
+        <v>1262</v>
+      </c>
+      <c r="O59">
+        <v>1940</v>
+      </c>
+      <c r="P59">
         <v>12</v>
       </c>
-      <c r="M59">
+      <c r="Q59">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3099,16 +3821,16 @@
         <v>1676593404654</v>
       </c>
       <c r="F60">
+        <v>1676593407883</v>
+      </c>
+      <c r="G60">
+        <v>1676593404651</v>
+      </c>
+      <c r="H60">
         <v>1676593408000</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>1676593405000</v>
-      </c>
-      <c r="H60">
-        <v>2001</v>
-      </c>
-      <c r="I60">
-        <v>1641</v>
       </c>
       <c r="J60">
         <v>2001</v>
@@ -3117,13 +3839,25 @@
         <v>1641</v>
       </c>
       <c r="L60">
+        <v>2001</v>
+      </c>
+      <c r="M60">
+        <v>1641</v>
+      </c>
+      <c r="N60">
+        <v>2001</v>
+      </c>
+      <c r="O60">
+        <v>1641</v>
+      </c>
+      <c r="P60">
         <v>20</v>
       </c>
-      <c r="M60">
+      <c r="Q60">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3140,31 +3874,43 @@
         <v>1676593908524</v>
       </c>
       <c r="F61">
+        <v>1676593902253</v>
+      </c>
+      <c r="G61">
+        <v>1676593908520</v>
+      </c>
+      <c r="H61">
         <v>1676593901999</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>1676593908999</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>1077</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>1816</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>1076</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>1815</v>
       </c>
-      <c r="L61">
+      <c r="N61">
+        <v>1081</v>
+      </c>
+      <c r="O61">
+        <v>1820</v>
+      </c>
+      <c r="P61">
         <v>10</v>
       </c>
-      <c r="M61">
+      <c r="Q61">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3181,31 +3927,43 @@
         <v>1676592846572</v>
       </c>
       <c r="F62">
+        <v>1676592842782</v>
+      </c>
+      <c r="G62">
+        <v>1676592846572</v>
+      </c>
+      <c r="H62">
         <v>1676592843000</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>1676592847000</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>1305</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>1727</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>1304</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>1726</v>
       </c>
-      <c r="L62">
+      <c r="N62">
+        <v>1305</v>
+      </c>
+      <c r="O62">
+        <v>1727</v>
+      </c>
+      <c r="P62">
         <v>13</v>
       </c>
-      <c r="M62">
+      <c r="Q62">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3222,31 +3980,43 @@
         <v>1676592886672</v>
       </c>
       <c r="F63">
+        <v>1676592882758</v>
+      </c>
+      <c r="G63">
+        <v>1676592886668</v>
+      </c>
+      <c r="H63">
         <v>1676592883454</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>1676592886999</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>1093</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>1555</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>1084</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>1546</v>
       </c>
-      <c r="L63">
+      <c r="N63">
+        <v>1098</v>
+      </c>
+      <c r="O63">
+        <v>1559</v>
+      </c>
+      <c r="P63">
         <v>1</v>
       </c>
-      <c r="M63">
+      <c r="Q63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3263,31 +4033,43 @@
         <v>1676592421375</v>
       </c>
       <c r="F64">
+        <v>1676592418150</v>
+      </c>
+      <c r="G64">
+        <v>1676592421374</v>
+      </c>
+      <c r="H64">
         <v>1676592418000</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>1676592421000</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>1515</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>1874</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>1514</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>1872</v>
       </c>
-      <c r="L64">
+      <c r="N64">
+        <v>1515</v>
+      </c>
+      <c r="O64">
+        <v>1874</v>
+      </c>
+      <c r="P64">
         <v>15</v>
       </c>
-      <c r="M64">
+      <c r="Q64">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3304,31 +4086,43 @@
         <v>1676592795985</v>
       </c>
       <c r="F65">
+        <v>1676592792041</v>
+      </c>
+      <c r="G65">
+        <v>1676592795985</v>
+      </c>
+      <c r="H65">
         <v>1676592798999</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>1676592798999</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>1255</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>1720</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>1247</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>1712</v>
       </c>
-      <c r="L65">
+      <c r="N65">
+        <v>1259</v>
+      </c>
+      <c r="O65">
+        <v>1724</v>
+      </c>
+      <c r="P65">
         <v>13</v>
       </c>
-      <c r="M65">
+      <c r="Q65">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3345,31 +4139,43 @@
         <v>1676592550942</v>
       </c>
       <c r="F66">
+        <v>1676592547592</v>
+      </c>
+      <c r="G66">
+        <v>1676592550942</v>
+      </c>
+      <c r="H66">
         <v>1676592548000</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>1676592551000</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>1676</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>2049</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>1675</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>2048</v>
       </c>
-      <c r="L66">
+      <c r="N66">
+        <v>1675</v>
+      </c>
+      <c r="O66">
+        <v>2048</v>
+      </c>
+      <c r="P66">
         <v>17</v>
       </c>
-      <c r="M66">
+      <c r="Q66">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3386,31 +4192,43 @@
         <v>1676592334747</v>
       </c>
       <c r="F67">
+        <v>1676592331176</v>
+      </c>
+      <c r="G67">
+        <v>1676592334747</v>
+      </c>
+      <c r="H67">
         <v>1676592331418</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>1676592335000</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>1146</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>1567</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>1139</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>1560</v>
       </c>
-      <c r="L67">
+      <c r="N67">
+        <v>1151</v>
+      </c>
+      <c r="O67">
+        <v>1572</v>
+      </c>
+      <c r="P67">
         <v>1</v>
       </c>
-      <c r="M67">
+      <c r="Q67">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3427,31 +4245,43 @@
         <v>1676594534881</v>
       </c>
       <c r="F68">
+        <v>1676594529548</v>
+      </c>
+      <c r="G68">
+        <v>1676594534882</v>
+      </c>
+      <c r="H68">
         <v>1676594530000</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>1676594535000</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>1244</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>1838</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>1240</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>1834</v>
       </c>
-      <c r="L68">
+      <c r="N68">
+        <v>1243</v>
+      </c>
+      <c r="O68">
+        <v>1837</v>
+      </c>
+      <c r="P68">
         <v>13</v>
       </c>
-      <c r="M68">
+      <c r="Q68">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3468,31 +4298,43 @@
         <v>1676595107277</v>
       </c>
       <c r="F69">
+        <v>1676595101328</v>
+      </c>
+      <c r="G69">
+        <v>1676595107273</v>
+      </c>
+      <c r="H69">
         <v>1676595100999</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>1676595107999</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>1232</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>1933</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>1231</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>1932</v>
       </c>
-      <c r="L69">
+      <c r="N69">
+        <v>1238</v>
+      </c>
+      <c r="O69">
+        <v>1939</v>
+      </c>
+      <c r="P69">
         <v>11</v>
       </c>
-      <c r="M69">
+      <c r="Q69">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3509,31 +4351,43 @@
         <v>1676595168805</v>
       </c>
       <c r="F70">
+        <v>1676595163324</v>
+      </c>
+      <c r="G70">
+        <v>1676595168809</v>
+      </c>
+      <c r="H70">
         <v>1676595162999</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>1676595168999</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>1477</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>2087</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>1475</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>2085</v>
       </c>
-      <c r="L70">
+      <c r="N70">
+        <v>1475</v>
+      </c>
+      <c r="O70">
+        <v>2086</v>
+      </c>
+      <c r="P70">
         <v>15</v>
       </c>
-      <c r="M70">
+      <c r="Q70">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3550,31 +4404,43 @@
         <v>1676594703453</v>
       </c>
       <c r="F71">
+        <v>1676594698208</v>
+      </c>
+      <c r="G71">
+        <v>1676594703449</v>
+      </c>
+      <c r="H71">
         <v>1676594696999</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>1676594702999</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>1212</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>1830</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>1211</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>1828</v>
       </c>
-      <c r="L71">
+      <c r="N71">
+        <v>1217</v>
+      </c>
+      <c r="O71">
+        <v>1835</v>
+      </c>
+      <c r="P71">
         <v>10</v>
       </c>
-      <c r="M71">
+      <c r="Q71">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3591,31 +4457,43 @@
         <v>1676594631956</v>
       </c>
       <c r="F72">
+        <v>1676594626120</v>
+      </c>
+      <c r="G72">
+        <v>1676594631956</v>
+      </c>
+      <c r="H72">
         <v>1676594626000</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>1676594632000</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>1520</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>2170</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>1518</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>2168</v>
       </c>
-      <c r="L72">
+      <c r="N72">
+        <v>1519</v>
+      </c>
+      <c r="O72">
+        <v>2169</v>
+      </c>
+      <c r="P72">
         <v>15</v>
       </c>
-      <c r="M72">
+      <c r="Q72">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3632,27 +4510,39 @@
         <v>1676595002306</v>
       </c>
       <c r="F73">
+        <v>1676594997248</v>
+      </c>
+      <c r="G73">
+        <v>1676595002302</v>
+      </c>
+      <c r="H73">
         <v>1676594996999</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>1676595001999</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>1592</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>2188</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>1588</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>2183</v>
       </c>
-      <c r="L73">
+      <c r="N73">
+        <v>1597</v>
+      </c>
+      <c r="O73">
+        <v>2193</v>
+      </c>
+      <c r="P73">
         <v>14</v>
       </c>
-      <c r="M73">
+      <c r="Q73">
         <v>19</v>
       </c>
     </row>

--- a/routeclipping.xlsx
+++ b/routeclipping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\github\AA272FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A19A647-A419-45ED-9C4C-6BA0F070EA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A43E8-D5D8-49E8-8FF2-3764AF9EC477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D359C48-C5B3-43FC-ADDD-F2F7AE81C572}"/>
   </bookViews>
@@ -309,10 +309,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -338,8 +345,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +665,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,57 +1480,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1676592275807</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1676592279649</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1676592275807</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>1676592279649</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>1676592275807</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>1676592279649</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>1676592283000</v>
       </c>
-      <c r="I16">
-        <v>1676592283000</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="1">
+        <v>1676592285000</v>
+      </c>
+      <c r="J16" s="1">
         <v>1393</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>1846</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>1385</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>1838</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>1401</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>1854</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>12</v>
       </c>
-      <c r="Q16">
-        <v>12</v>
+      <c r="Q16" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2002,57 +2010,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>1676592841587</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1676592846701</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>1676592841587</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>1676592846701</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>1676592841583</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>1676592846697</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>1676592853000</v>
       </c>
-      <c r="I26">
-        <v>1676592853000</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="1">
+        <v>1676592855000</v>
+      </c>
+      <c r="J26" s="1">
         <v>1349</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>1952</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>1340</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>1943</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>1353</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>1956</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>7</v>
       </c>
-      <c r="Q26">
-        <v>7</v>
+      <c r="Q26" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -2108,57 +2116,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>1676592417177</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1676592421180</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>1676592417178</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>1676592421180</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>1676592417173</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>1676592421176</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>1676592427000</v>
       </c>
-      <c r="I28">
-        <v>1676592427000</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="1">
+        <v>1676592429000</v>
+      </c>
+      <c r="J28" s="1">
         <v>1602</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>2074</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>1595</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>2066</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>1608</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>2080</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>19</v>
       </c>
-      <c r="Q28">
-        <v>19</v>
+      <c r="Q28" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -2214,57 +2222,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>1676592546378</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1676592551322</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>1676592546378</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>1676592551322</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>1676592546378</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>1676592551322</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>1676592558999</v>
       </c>
-      <c r="I30">
-        <v>1676592558999</v>
-      </c>
-      <c r="J30">
+      <c r="I30" s="1">
+        <v>1676592560999</v>
+      </c>
+      <c r="J30" s="1">
         <v>1747</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>2330</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>1738</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>2321</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>1749</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>2332</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>12</v>
       </c>
-      <c r="Q30">
-        <v>12</v>
+      <c r="Q30" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -2585,57 +2593,57 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>1676594998373</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>1676595003608</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>1676594998373</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>1676595003608</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>1676594998373</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>1676595003609</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>1676594990000</v>
       </c>
-      <c r="I37">
-        <v>1676594990000</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="1">
+        <v>1676594992000</v>
+      </c>
+      <c r="J37" s="1">
         <v>1519</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>2102</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>1516</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>2099</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>1519</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <v>2102</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="1">
         <v>7</v>
       </c>
-      <c r="Q37">
-        <v>7</v>
+      <c r="Q37" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3698,57 +3706,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>1676594089983</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>1676594095748</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>1676594089984</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>1676594095749</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>1676594089987</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>1676594095752</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <v>1676594096000</v>
       </c>
-      <c r="I58">
-        <v>1676594096000</v>
-      </c>
-      <c r="J58">
+      <c r="I58" s="1">
+        <v>1676594098000</v>
+      </c>
+      <c r="J58" s="1">
         <v>910</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="1">
         <v>1552</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="1">
         <v>909</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="1">
         <v>1551</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="1">
         <v>911</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="1">
         <v>1553</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="1">
         <v>1</v>
       </c>
-      <c r="Q58">
-        <v>1</v>
+      <c r="Q58" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
@@ -3833,28 +3841,28 @@
         <v>1676593405000</v>
       </c>
       <c r="J60">
+        <v>1641</v>
+      </c>
+      <c r="K60">
         <v>2001</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>1641</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>2001</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>1641</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>2001</v>
       </c>
-      <c r="O60">
-        <v>1641</v>
-      </c>
       <c r="P60">
+        <v>17</v>
+      </c>
+      <c r="Q60">
         <v>20</v>
-      </c>
-      <c r="Q60">
-        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -4069,57 +4077,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="65" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>1676592792041</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>1676592795985</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>1676592792041</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>1676592795985</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>1676592792041</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>1676592795985</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="1">
         <v>1676592798999</v>
       </c>
-      <c r="I65">
-        <v>1676592798999</v>
-      </c>
-      <c r="J65">
+      <c r="I65" s="1">
+        <v>1676592800999</v>
+      </c>
+      <c r="J65" s="1">
         <v>1255</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="1">
         <v>1720</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="1">
         <v>1247</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="1">
         <v>1712</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="1">
         <v>1259</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="1">
         <v>1724</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="1">
         <v>13</v>
       </c>
-      <c r="Q65">
-        <v>13</v>
+      <c r="Q65" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -4548,5 +4556,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/routeclipping.xlsx
+++ b/routeclipping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\github\AA272FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A43E8-D5D8-49E8-8FF2-3764AF9EC477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4E3A0-242A-4BF3-941A-E88386EE48A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D359C48-C5B3-43FC-ADDD-F2F7AE81C572}"/>
   </bookViews>
@@ -662,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F140E490-3DE4-4FB7-98D7-B7BEB8D39EA8}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3229,7 +3229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -3728,11 +3728,11 @@
       <c r="G58" s="1">
         <v>1676594095752</v>
       </c>
-      <c r="H58" s="1">
-        <v>1676594096000</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1676594098000</v>
+      <c r="H58">
+        <v>1676594101000</v>
+      </c>
+      <c r="I58">
+        <v>1676594103000</v>
       </c>
       <c r="J58" s="1">
         <v>910</v>
@@ -3753,13 +3753,14 @@
         <v>1553</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q58" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="T58"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3812,7 +3813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
